--- a/biology/Zoologie/Allolobophora_chlorotica/Allolobophora_chlorotica.xlsx
+++ b/biology/Zoologie/Allolobophora_chlorotica/Allolobophora_chlorotica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lombric vert
-Allolobophora chlorotica, le Lombric vert[2], est une espèce de vers de terre de la famille des Lumbricidae et appartenant au groupe fonctionnel des épi-endogés géophages. Elle vit au sein des prairies et des zones de cultures.
-Allolobophora chlorotica mesure de 5 à 8 cm de long pour un diamètre de 3 à 7 mm et pèse de 0,5 à 0,7 g. En France, trois variétés basées sur sa coloration sont connues : une variété verdâtre et trapue, une autre blanche et une dernière grisâtre[3]. Il existe de nombreuses autres sous-espèces et variétés[4].
-Cette espèce fait partie des épi-endogés géophages et crée des galeries ramifiées à orientation quelconque au niveau du mât racinaire des plantes[5]. Elle se reproduit par reproduction sexuée biparentale[3].  
-Le Lombric vert vit au sein des prairies plutôt humides à faible teneur en matière organique (moins de 4%)[6]. A l’inverse, sa forme blanche est généralement observée dans les pelouses calcaires sèches[3]. 
-Allolobophora chlorotica est originaire du Paléarctique, mais a été introduite en Nouvelle-Zélande, en Amérique du Nord et du Sud[6]. Elle est présente sur la totalité du continent européen[7].
+Allolobophora chlorotica, le Lombric vert, est une espèce de vers de terre de la famille des Lumbricidae et appartenant au groupe fonctionnel des épi-endogés géophages. Elle vit au sein des prairies et des zones de cultures.
+Allolobophora chlorotica mesure de 5 à 8 cm de long pour un diamètre de 3 à 7 mm et pèse de 0,5 à 0,7 g. En France, trois variétés basées sur sa coloration sont connues : une variété verdâtre et trapue, une autre blanche et une dernière grisâtre. Il existe de nombreuses autres sous-espèces et variétés.
+Cette espèce fait partie des épi-endogés géophages et crée des galeries ramifiées à orientation quelconque au niveau du mât racinaire des plantes. Elle se reproduit par reproduction sexuée biparentale.  
+Le Lombric vert vit au sein des prairies plutôt humides à faible teneur en matière organique (moins de 4%). A l’inverse, sa forme blanche est généralement observée dans les pelouses calcaires sèches. 
+Allolobophora chlorotica est originaire du Paléarctique, mais a été introduite en Nouvelle-Zélande, en Amérique du Nord et du Sud. Elle est présente sur la totalité du continent européen.
 </t>
         </is>
       </c>
